--- a/code/content/TOPIC_XLSX/시계열_3.xlsx
+++ b/code/content/TOPIC_XLSX/시계열_3.xlsx
@@ -14,354 +14,387 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
   <si>
     <t>년월</t>
   </si>
   <si>
+    <t>201807</t>
+  </si>
+  <si>
+    <t>201806</t>
+  </si>
+  <si>
+    <t>201808</t>
+  </si>
+  <si>
+    <t>201210</t>
+  </si>
+  <si>
+    <t>201108</t>
+  </si>
+  <si>
+    <t>201801</t>
+  </si>
+  <si>
+    <t>201804</t>
+  </si>
+  <si>
+    <t>201902</t>
+  </si>
+  <si>
     <t>201012</t>
   </si>
   <si>
+    <t>201809</t>
+  </si>
+  <si>
+    <t>201708</t>
+  </si>
+  <si>
+    <t>201812</t>
+  </si>
+  <si>
+    <t>201110</t>
+  </si>
+  <si>
+    <t>201202</t>
+  </si>
+  <si>
+    <t>200810</t>
+  </si>
+  <si>
+    <t>201107</t>
+  </si>
+  <si>
+    <t>201112</t>
+  </si>
+  <si>
+    <t>201206</t>
+  </si>
+  <si>
+    <t>201010</t>
+  </si>
+  <si>
+    <t>201204</t>
+  </si>
+  <si>
+    <t>201712</t>
+  </si>
+  <si>
+    <t>201901</t>
+  </si>
+  <si>
+    <t>201710</t>
+  </si>
+  <si>
+    <t>201309</t>
+  </si>
+  <si>
+    <t>201810</t>
+  </si>
+  <si>
+    <t>201104</t>
+  </si>
+  <si>
+    <t>201103</t>
+  </si>
+  <si>
+    <t>201009</t>
+  </si>
+  <si>
+    <t>201106</t>
+  </si>
+  <si>
+    <t>201105</t>
+  </si>
+  <si>
+    <t>201301</t>
+  </si>
+  <si>
+    <t>201903</t>
+  </si>
+  <si>
+    <t>201302</t>
+  </si>
+  <si>
+    <t>201007</t>
+  </si>
+  <si>
+    <t>201706</t>
+  </si>
+  <si>
+    <t>201205</t>
+  </si>
+  <si>
+    <t>201803</t>
+  </si>
+  <si>
     <t>201101</t>
   </si>
   <si>
-    <t>201202</t>
+    <t>201305</t>
+  </si>
+  <si>
+    <t>201605</t>
+  </si>
+  <si>
+    <t>201004</t>
+  </si>
+  <si>
+    <t>201505</t>
+  </si>
+  <si>
+    <t>201109</t>
+  </si>
+  <si>
+    <t>201207</t>
+  </si>
+  <si>
+    <t>201203</t>
+  </si>
+  <si>
+    <t>201201</t>
+  </si>
+  <si>
+    <t>201412</t>
+  </si>
+  <si>
+    <t>201308</t>
+  </si>
+  <si>
+    <t>200811</t>
+  </si>
+  <si>
+    <t>201702</t>
+  </si>
+  <si>
+    <t>201805</t>
+  </si>
+  <si>
+    <t>201211</t>
+  </si>
+  <si>
+    <t>201212</t>
+  </si>
+  <si>
+    <t>201704</t>
+  </si>
+  <si>
+    <t>201511</t>
+  </si>
+  <si>
+    <t>201312</t>
+  </si>
+  <si>
+    <t>201802</t>
+  </si>
+  <si>
+    <t>201209</t>
   </si>
   <si>
     <t>201111</t>
   </si>
   <si>
+    <t>201011</t>
+  </si>
+  <si>
+    <t>201001</t>
+  </si>
+  <si>
+    <t>201705</t>
+  </si>
+  <si>
+    <t>201703</t>
+  </si>
+  <si>
+    <t>201504</t>
+  </si>
+  <si>
+    <t>201612</t>
+  </si>
+  <si>
+    <t>201611</t>
+  </si>
+  <si>
+    <t>201102</t>
+  </si>
+  <si>
+    <t>201006</t>
+  </si>
+  <si>
+    <t>200903</t>
+  </si>
+  <si>
+    <t>201208</t>
+  </si>
+  <si>
+    <t>201005</t>
+  </si>
+  <si>
+    <t>201008</t>
+  </si>
+  <si>
+    <t>201310</t>
+  </si>
+  <si>
+    <t>201303</t>
+  </si>
+  <si>
+    <t>201307</t>
+  </si>
+  <si>
+    <t>201606</t>
+  </si>
+  <si>
+    <t>201401</t>
+  </si>
+  <si>
+    <t>201701</t>
+  </si>
+  <si>
+    <t>201707</t>
+  </si>
+  <si>
+    <t>201709</t>
+  </si>
+  <si>
+    <t>201411</t>
+  </si>
+  <si>
+    <t>201609</t>
+  </si>
+  <si>
+    <t>201607</t>
+  </si>
+  <si>
+    <t>201512</t>
+  </si>
+  <si>
+    <t>201510</t>
+  </si>
+  <si>
+    <t>200911</t>
+  </si>
+  <si>
+    <t>200812</t>
+  </si>
+  <si>
+    <t>201502</t>
+  </si>
+  <si>
+    <t>201501</t>
+  </si>
+  <si>
+    <t>201409</t>
+  </si>
+  <si>
+    <t>201811</t>
+  </si>
+  <si>
+    <t>201406</t>
+  </si>
+  <si>
+    <t>201405</t>
+  </si>
+  <si>
+    <t>200809</t>
+  </si>
+  <si>
+    <t>201403</t>
+  </si>
+  <si>
+    <t>201402</t>
+  </si>
+  <si>
+    <t>201306</t>
+  </si>
+  <si>
+    <t>201608</t>
+  </si>
+  <si>
+    <t>201711</t>
+  </si>
+  <si>
+    <t>200902</t>
+  </si>
+  <si>
+    <t>200909</t>
+  </si>
+  <si>
+    <t>201610</t>
+  </si>
+  <si>
+    <t>200806</t>
+  </si>
+  <si>
+    <t>201604</t>
+  </si>
+  <si>
+    <t>201311</t>
+  </si>
+  <si>
+    <t>201404</t>
+  </si>
+  <si>
+    <t>201407</t>
+  </si>
+  <si>
+    <t>201506</t>
+  </si>
+  <si>
+    <t>201304</t>
+  </si>
+  <si>
+    <t>200904</t>
+  </si>
+  <si>
+    <t>200808</t>
+  </si>
+  <si>
+    <t>201410</t>
+  </si>
+  <si>
+    <t>201603</t>
+  </si>
+  <si>
+    <t>201507</t>
+  </si>
+  <si>
+    <t>200906</t>
+  </si>
+  <si>
+    <t>200907</t>
+  </si>
+  <si>
+    <t>201509</t>
+  </si>
+  <si>
     <t>200912</t>
   </si>
   <si>
-    <t>201301</t>
-  </si>
-  <si>
-    <t>201108</t>
-  </si>
-  <si>
-    <t>201107</t>
-  </si>
-  <si>
-    <t>201203</t>
-  </si>
-  <si>
-    <t>201112</t>
-  </si>
-  <si>
-    <t>200909</t>
-  </si>
-  <si>
-    <t>201007</t>
-  </si>
-  <si>
-    <t>201011</t>
-  </si>
-  <si>
-    <t>201302</t>
-  </si>
-  <si>
-    <t>201307</t>
-  </si>
-  <si>
-    <t>201312</t>
-  </si>
-  <si>
-    <t>201005</t>
-  </si>
-  <si>
-    <t>201004</t>
-  </si>
-  <si>
-    <t>201309</t>
+    <t>201508</t>
+  </si>
+  <si>
+    <t>200901</t>
+  </si>
+  <si>
+    <t>201503</t>
+  </si>
+  <si>
+    <t>201602</t>
   </si>
   <si>
     <t>201002</t>
   </si>
   <si>
-    <t>201209</t>
-  </si>
-  <si>
-    <t>201001</t>
-  </si>
-  <si>
-    <t>201009</t>
-  </si>
-  <si>
-    <t>201103</t>
-  </si>
-  <si>
-    <t>201106</t>
-  </si>
-  <si>
-    <t>201304</t>
-  </si>
-  <si>
-    <t>201201</t>
-  </si>
-  <si>
-    <t>201310</t>
-  </si>
-  <si>
-    <t>201210</t>
+    <t>201003</t>
   </si>
   <si>
     <t>200805</t>
   </si>
   <si>
-    <t>201305</t>
-  </si>
-  <si>
-    <t>201104</t>
-  </si>
-  <si>
-    <t>201110</t>
-  </si>
-  <si>
-    <t>201211</t>
-  </si>
-  <si>
-    <t>201303</t>
-  </si>
-  <si>
-    <t>201109</t>
-  </si>
-  <si>
-    <t>201204</t>
-  </si>
-  <si>
-    <t>201901</t>
-  </si>
-  <si>
-    <t>201803</t>
-  </si>
-  <si>
-    <t>201208</t>
-  </si>
-  <si>
-    <t>201003</t>
-  </si>
-  <si>
-    <t>201311</t>
-  </si>
-  <si>
-    <t>201010</t>
-  </si>
-  <si>
-    <t>201102</t>
-  </si>
-  <si>
-    <t>200807</t>
-  </si>
-  <si>
-    <t>200905</t>
-  </si>
-  <si>
-    <t>201206</t>
-  </si>
-  <si>
-    <t>201006</t>
-  </si>
-  <si>
-    <t>201401</t>
-  </si>
-  <si>
-    <t>201406</t>
-  </si>
-  <si>
-    <t>201205</t>
-  </si>
-  <si>
-    <t>200907</t>
-  </si>
-  <si>
-    <t>201212</t>
-  </si>
-  <si>
-    <t>201105</t>
-  </si>
-  <si>
-    <t>201207</t>
-  </si>
-  <si>
-    <t>201903</t>
-  </si>
-  <si>
     <t>200804</t>
-  </si>
-  <si>
-    <t>201404</t>
-  </si>
-  <si>
-    <t>201807</t>
-  </si>
-  <si>
-    <t>201405</t>
-  </si>
-  <si>
-    <t>201806</t>
-  </si>
-  <si>
-    <t>201402</t>
-  </si>
-  <si>
-    <t>201403</t>
-  </si>
-  <si>
-    <t>201811</t>
-  </si>
-  <si>
-    <t>201008</t>
-  </si>
-  <si>
-    <t>200806</t>
-  </si>
-  <si>
-    <t>200811</t>
-  </si>
-  <si>
-    <t>200901</t>
-  </si>
-  <si>
-    <t>200904</t>
-  </si>
-  <si>
-    <t>200906</t>
-  </si>
-  <si>
-    <t>201808</t>
-  </si>
-  <si>
-    <t>201805</t>
-  </si>
-  <si>
-    <t>200809</t>
-  </si>
-  <si>
-    <t>201804</t>
-  </si>
-  <si>
-    <t>200903</t>
-  </si>
-  <si>
-    <t>200911</t>
-  </si>
-  <si>
-    <t>200910</t>
-  </si>
-  <si>
-    <t>201704</t>
-  </si>
-  <si>
-    <t>200808</t>
-  </si>
-  <si>
-    <t>201709</t>
-  </si>
-  <si>
-    <t>201306</t>
-  </si>
-  <si>
-    <t>201308</t>
-  </si>
-  <si>
-    <t>201407</t>
-  </si>
-  <si>
-    <t>201708</t>
-  </si>
-  <si>
-    <t>200810</t>
-  </si>
-  <si>
-    <t>201702</t>
-  </si>
-  <si>
-    <t>201607</t>
-  </si>
-  <si>
-    <t>201809</t>
-  </si>
-  <si>
-    <t>201410</t>
-  </si>
-  <si>
-    <t>201409</t>
-  </si>
-  <si>
-    <t>201612</t>
-  </si>
-  <si>
-    <t>201812</t>
-  </si>
-  <si>
-    <t>200908</t>
-  </si>
-  <si>
-    <t>201408</t>
-  </si>
-  <si>
-    <t>200812</t>
-  </si>
-  <si>
-    <t>201502</t>
-  </si>
-  <si>
-    <t>201503</t>
-  </si>
-  <si>
-    <t>201504</t>
-  </si>
-  <si>
-    <t>201810</t>
-  </si>
-  <si>
-    <t>201505</t>
-  </si>
-  <si>
-    <t>201701</t>
-  </si>
-  <si>
-    <t>201508</t>
-  </si>
-  <si>
-    <t>201509</t>
-  </si>
-  <si>
-    <t>201511</t>
-  </si>
-  <si>
-    <t>201603</t>
-  </si>
-  <si>
-    <t>201605</t>
-  </si>
-  <si>
-    <t>201802</t>
-  </si>
-  <si>
-    <t>201801</t>
-  </si>
-  <si>
-    <t>201711</t>
-  </si>
-  <si>
-    <t>201710</t>
-  </si>
-  <si>
-    <t>201610</t>
-  </si>
-  <si>
-    <t>201611</t>
-  </si>
-  <si>
-    <t>201902</t>
-  </si>
-  <si>
-    <t>201703</t>
-  </si>
-  <si>
-    <t>201506</t>
   </si>
 </sst>
 </file>
@@ -719,7 +752,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B116"/>
+  <dimension ref="A1:B127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -738,7 +771,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -746,7 +779,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -754,7 +787,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -762,7 +795,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -770,7 +803,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -778,7 +811,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -786,7 +819,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -794,7 +827,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -802,7 +835,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -810,7 +843,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -818,7 +851,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -826,7 +859,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -834,7 +867,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -842,7 +875,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -850,7 +883,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -858,7 +891,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -866,7 +899,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -874,7 +907,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -882,7 +915,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -890,7 +923,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -898,7 +931,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -906,7 +939,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -914,7 +947,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -922,7 +955,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -930,7 +963,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -938,7 +971,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -946,7 +979,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -954,7 +987,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -962,7 +995,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -970,7 +1003,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -978,7 +1011,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -986,7 +1019,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -994,7 +1027,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1002,7 +1035,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1010,7 +1043,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1042,7 +1075,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1050,7 +1083,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1058,7 +1091,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1066,7 +1099,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1074,7 +1107,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1082,7 +1115,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1090,7 +1123,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1098,7 +1131,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1106,7 +1139,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1114,7 +1147,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1122,7 +1155,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1130,7 +1163,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1138,7 +1171,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1146,7 +1179,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1154,7 +1187,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1162,7 +1195,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1170,7 +1203,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1178,7 +1211,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1186,7 +1219,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1194,7 +1227,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1202,7 +1235,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1210,7 +1243,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1218,7 +1251,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1226,7 +1259,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1234,7 +1267,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1242,7 +1275,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1250,7 +1283,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1258,7 +1291,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1266,7 +1299,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1274,7 +1307,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1282,7 +1315,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1290,7 +1323,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1298,7 +1331,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1306,7 +1339,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1314,7 +1347,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1322,7 +1355,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1330,7 +1363,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1338,7 +1371,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1346,7 +1379,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1354,7 +1387,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1362,7 +1395,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1370,7 +1403,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1378,7 +1411,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1386,7 +1419,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1394,7 +1427,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1402,7 +1435,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1410,7 +1443,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1418,7 +1451,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1426,7 +1459,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1434,7 +1467,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1442,7 +1475,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1450,7 +1483,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1458,7 +1491,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1466,7 +1499,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1474,7 +1507,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1482,7 +1515,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1490,7 +1523,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1498,7 +1531,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1506,7 +1539,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1514,7 +1547,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1522,7 +1555,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1530,7 +1563,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1538,7 +1571,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1546,7 +1579,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1554,7 +1587,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1562,7 +1595,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1570,7 +1603,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1578,7 +1611,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1586,7 +1619,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1594,7 +1627,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1602,7 +1635,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1610,7 +1643,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1618,7 +1651,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1626,7 +1659,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1634,7 +1667,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1642,7 +1675,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1650,6 +1683,94 @@
         <v>115</v>
       </c>
       <c r="B116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B127">
         <v>1</v>
       </c>
     </row>
